--- a/Vuejs/vue01docs/Vue정리-202000606.xlsx
+++ b/Vuejs/vue01docs/Vue정리-202000606.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIS20200628\JHJ\TIS_Academy_VueReact\Vuejs\vue01docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="24240" windowHeight="12780" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="36" windowWidth="24240" windowHeight="12780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="용어" sheetId="4" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="141">
   <si>
     <t>beforeDestroy</t>
   </si>
@@ -56,15 +61,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>computed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인스턴스 속성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>watch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -480,12 +477,6 @@
     <t xml:space="preserve">수동 실행 + 이벤트 처리
 이벤트 및 화면 동작 처리 메서드. 
 수동 수행 ==&gt; 호출할 때마다 로직 수행. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동 실행 + 동기식 처리
-watch 속성은 data 속성 값의 변화를 감지하여 자동으로 특정 로직을 수행한다.
-computed 속성과 유사하지만 장시간 소요되는 비동기 처리에 적합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -845,12 +836,30 @@
     <t>component --.dispatch()--&gt; actions --.commit()--&gt; mutations(≈Dispatcher) --&gt; state --&gt; getters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>화면에 표출하고 싶은 태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 실행 + 동기식 처리
+watch 속성은 data 속성 값의 변화를 감지하여 자동으로 특정 로직을 수행한다.
+computed 속성과 유사하지만 장시간 소요되는 비동기 처리에 적합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>computed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1190,6 +1199,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1621,8 +1633,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12122053" y="3682626"/>
-          <a:ext cx="4423703" cy="4201404"/>
+          <a:off x="12122053" y="3694056"/>
+          <a:ext cx="4423703" cy="4279509"/>
           <a:chOff x="6731785" y="4093740"/>
           <a:chExt cx="2610165" cy="2528647"/>
         </a:xfrm>
@@ -2412,8 +2424,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11737182" y="1100137"/>
-          <a:ext cx="4884463" cy="2289731"/>
+          <a:off x="11735277" y="1111567"/>
+          <a:ext cx="4886368" cy="2289731"/>
           <a:chOff x="1362075" y="4295775"/>
           <a:chExt cx="5465488" cy="2313543"/>
         </a:xfrm>
@@ -3193,7 +3205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3228,7 +3240,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3443,21 +3455,21 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="8" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="8" customWidth="1"/>
     <col min="5" max="6" width="9" style="8"/>
-    <col min="7" max="7" width="11.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.59765625" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="20.399999999999999">
       <c r="A1" s="36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -3468,9 +3480,9 @@
       <c r="H1" s="36"/>
       <c r="I1" s="24"/>
     </row>
-    <row r="2" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="25.5" customHeight="1">
       <c r="A2" s="36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -3481,9 +3493,9 @@
       <c r="H2" s="13"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="20.399999999999999">
       <c r="A3" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -3494,7 +3506,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="20.399999999999999">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -3502,133 +3514,133 @@
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.6">
       <c r="A6" s="37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6">
+      <c r="A7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>31</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>33</v>
       </c>
       <c r="H7" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.6">
       <c r="A9" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" s="28">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.6">
       <c r="A10" s="29"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="G10" s="31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" s="32">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15.6">
       <c r="A11" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="G11" s="31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" s="32">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.6">
       <c r="A12" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6"/>
       <c r="G12" s="33"/>
       <c r="H12" s="34"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="G13" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3651,20 +3663,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="5.59765625" style="21" customWidth="1"/>
     <col min="5" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -3675,73 +3687,75 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31.2">
       <c r="A3" s="38"/>
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="38"/>
       <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22"/>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="C4" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="46.8">
       <c r="A5" s="38"/>
       <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="46.8">
       <c r="A6" s="38"/>
       <c r="B6" s="15" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="38"/>
       <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="62.4">
       <c r="A8" s="38"/>
       <c r="B8" s="15" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -3764,89 +3778,89 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="46.69921875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.75" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="46.75" style="8"/>
+    <col min="1" max="1" width="13.09765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.69921875" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="46.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8">
       <c r="A4" s="39"/>
       <c r="B4" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8">
       <c r="A7" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="43.2">
       <c r="A8" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.8">
       <c r="A10" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3867,18 +3881,18 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.69921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.69921875" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="20.399999999999999">
       <c r="A1" s="36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -3888,9 +3902,9 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="20.399999999999999">
       <c r="A2" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -3900,9 +3914,9 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="8" customFormat="1" ht="20.399999999999999">
       <c r="A3" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -3912,7 +3926,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="20.399999999999999">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -3922,180 +3936,180 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="43.2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="32.25" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="31.2">
       <c r="A13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" ht="28.8">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.8">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="34.5" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="19"/>
       <c r="C16" s="2"/>
       <c r="D16" s="20"/>
     </row>
-    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="57.6">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6">
       <c r="A18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="19"/>
       <c r="C19" s="2"/>
       <c r="D19" s="20"/>
     </row>
-    <row r="20" spans="1:4" ht="99.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="100.8">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="57.6">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4118,143 +4132,143 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="41.09765625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.8984375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="37.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="41.125" style="8"/>
+    <col min="5" max="5" width="41.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="41.09765625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5">
       <c r="B2" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="316.8">
+      <c r="B8" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="C9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="299.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:5" ht="17.399999999999999">
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="17.399999999999999">
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="17.399999999999999">
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="17.399999999999999">
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5">
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="17.399999999999999">
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" ht="17.399999999999999">
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5" ht="17.399999999999999">
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" ht="17.399999999999999">
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5" ht="17.399999999999999">
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5" ht="17.399999999999999">
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5">
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:5" ht="17.399999999999999">
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:5">
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:5" ht="17.399999999999999">
       <c r="E25" s="3"/>
     </row>
   </sheetData>
@@ -4268,141 +4282,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="8" customWidth="1"/>
     <col min="6" max="6" width="84" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="3.59765625" style="8" customWidth="1"/>
     <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="B2" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="9"/>
       <c r="B6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="270.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" ht="273.60000000000002">
       <c r="A7" s="9"/>
       <c r="B7" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="106.5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="109.8">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="171" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="172.8">
       <c r="A9" s="9"/>
       <c r="B9" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="99.75" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="100.8">
       <c r="A10" s="9"/>
       <c r="B10" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="156.75" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="158.4">
       <c r="A11" s="9"/>
       <c r="B11" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
